--- a/5-FuncoesMercadoTrabalho/51. Função PROCX - Ordem de Pesquisa - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/51. Função PROCX - Ordem de Pesquisa - Material(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29E243-BCE6-4102-AE9D-E2F5D7D5CD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669CAF8F-57D8-4296-8808-728330BA6EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCX1" sheetId="2" r:id="rId1"/>
@@ -44,28 +44,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10078,8 +10056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AEFD92-AE42-445C-8771-97B628B0347E}">
   <dimension ref="A1:Q500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13214,7 +13192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B933CF86-C9EF-4C27-85FB-36EA3ED2E0D8}">
   <dimension ref="A1:M499"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13288,20 +13268,24 @@
       <c r="H2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="31" cm="1">
-        <f t="array" ref="I2:M2">_xlfn.XLOOKUP($H2,A:A,B:F)</f>
+      <c r="I2" s="31">
+        <f>_xlfn.XLOOKUP($H2, $A:$A, B:B)</f>
         <v>12000</v>
       </c>
       <c r="J2" s="31">
+        <f>_xlfn.XLOOKUP($H2, $A:$A, C:C)</f>
         <v>16500</v>
       </c>
       <c r="K2" s="31">
+        <f>_xlfn.XLOOKUP($H2, $A:$A, D:D)</f>
         <v>8700</v>
       </c>
       <c r="L2" s="31">
+        <f>_xlfn.XLOOKUP($H2, $A:$A, E:E)</f>
         <v>6400</v>
       </c>
       <c r="M2" s="31">
+        <f>_xlfn.XLOOKUP($H2, $A:$A, F:F)</f>
         <v>7100</v>
       </c>
     </row>
@@ -13327,20 +13311,24 @@
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="31" cm="1">
-        <f t="array" ref="I3:M3">_xlfn.XLOOKUP($H3,A:A,B:F)</f>
+      <c r="I3" s="31">
+        <f t="shared" ref="I3:I4" si="0">_xlfn.XLOOKUP($H3, $A:$A, B:B)</f>
         <v>6100</v>
       </c>
       <c r="J3" s="31">
+        <f t="shared" ref="J3:J4" si="1">_xlfn.XLOOKUP($H3, $A:$A, C:C)</f>
         <v>14900</v>
       </c>
       <c r="K3" s="31">
+        <f t="shared" ref="K3:K4" si="2">_xlfn.XLOOKUP($H3, $A:$A, D:D)</f>
         <v>13100</v>
       </c>
       <c r="L3" s="31">
+        <f t="shared" ref="L3:L4" si="3">_xlfn.XLOOKUP($H3, $A:$A, E:E)</f>
         <v>18800</v>
       </c>
       <c r="M3" s="31">
+        <f t="shared" ref="M3:M4" si="4">_xlfn.XLOOKUP($H3, $A:$A, F:F)</f>
         <v>1300</v>
       </c>
     </row>
@@ -13364,23 +13352,27 @@
         <v>7100</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="31" cm="1">
-        <f t="array" ref="I4:M4">_xlfn.XLOOKUP($H4,A:A,B:F)</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="31">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="J4" s="31">
+        <f t="shared" si="1"/>
+        <v>14700</v>
+      </c>
+      <c r="K4" s="31">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="L4" s="31">
+        <f t="shared" si="3"/>
         <v>9100</v>
       </c>
-      <c r="J4" s="31">
-        <v>10300</v>
-      </c>
-      <c r="K4" s="31">
-        <v>19100</v>
-      </c>
-      <c r="L4" s="31">
-        <v>17300</v>
-      </c>
       <c r="M4" s="31">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>4100</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
